--- a/biology/Botanique/Coreopsis/Coreopsis.xlsx
+++ b/biology/Botanique/Coreopsis/Coreopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coreopsis sont un genre de plante à fleurs de la famille des Astéracées, originaires d'Amérique du Nord. Elles sont cultivées pour leurs fleurs. Le genre regroupe plus de 450 espèces et variétés.
 Le nom coréopsis est dérivé des mots grecs κόρη (korè), qui signifie « jeune fille » et ὄψ (ops), qui signifie « œil », en référence à la beauté de la fleur.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coreopsis sont des plantes herbacées vivaces qui mesurent de 40 à 120 cm de hauteur. Les fruits sont petits plats et secs et ressemblent à des insectes. Beaucoup de ces espèces sont cultivées. 28 espèces sont indigènes d'Amérique du Nord et les autres viennent d'Amérique centrale et du Sud. Les fleurs sont généralement de couleur jaune avec des pétales dentés.
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sections
-La classification GRIN segmente le genre en 11 sections tenant compte de leur relation cladistique (avec le nombre d'espèces entre parenthèses) :
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification GRIN segmente le genre en 11 sections tenant compte de leur relation cladistique (avec le nombre d'espèces entre parenthèses) :
 Mexique et Ouest de l'Amérique du Nord
 Coreopsis sect. Electra (3)
 Coreopsis sect. Anathysana (1)
@@ -555,21 +574,135 @@
 Coreopsis sect. Leptosyne (3)
 Est de l'Amérique du Nord
 Coreopsis sect. Silphidium (1)
-Coreopsis sect. Gyrophyllum (syn. Palmatae)[1] (6)
+Coreopsis sect. Gyrophyllum (syn. Palmatae) (6)
 Coreopsis sect. Calliopsis (3)
 Coreopsis sect. Eublepharis (7)
 Coreopsis sect. Coreopsis (9)
 Amérique du Sud
-Coreopsis sect. Pseudoagarista (35)
-Section Anathysana
-Coreopsis cyclocarpa S.F.Blake
-Section Calliopsis
-Coreopsis bicolor
+Coreopsis sect. Pseudoagarista (35)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Section Anathysana</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coreopsis cyclocarpa S.F.Blake</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Section Calliopsis</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Coreopsis bicolor
 Coreopsis leavenworthii Torr. &amp; A.Gray – Leavenworth's Tickseed
 Coreopsis paludosa M.E.Jones
-Coreopsis tinctoria Nutt. – Plains Coreopsis
-Section Coreopsis
-Coreopsis auriculata L. – Lobed Tickseed
+Coreopsis tinctoria Nutt. – Plains Coreopsis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Section Coreopsis</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Coreopsis auriculata L. – Lobed Tickseed
 Coreopsis basalis (A.Dietr.) S.F.Blake – Goldenmane Tickseed
 Coreopsis grandiflora Hogg ex Sweet – Large-flowered Tickseed
 Coreopsis intermedia Sherff – Goldenwave Tickseed
@@ -577,73 +710,378 @@
 Coreopsis nuecensis A.Heller – Crown Tickseed
 Coreopsis nuecensoides E.B.Sm. – Rio Grande Tickseed
 Coreopsis pubescens Elliott – Star Tickseed
-Coreopsis wrightii (A.Gray) H.M.Parker – Rock Tickseed
-Section Electra
-Coreopsis cuneifolia Greenm.
+Coreopsis wrightii (A.Gray) H.M.Parker – Rock Tickseed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Section Electra</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Coreopsis cuneifolia Greenm.
 Coreopsis mexicana
-Coreopsis mutica DC.
-Section Eublepharis
-Coreopsis floridana E.B.Sm. – Florida Tickseed
+Coreopsis mutica DC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Section Eublepharis</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Coreopsis floridana E.B.Sm. – Florida Tickseed
 Coreopsis gladiata Walter – Coastalplain Tickseed
 Coreopsis integrifolia Poir. – Fringeleaf Tickseed
 Coreopsis linifolia Nutt. – Texas Tickseed
 Coreopsis nudata Nutt. – Georgia Tickseed
-Coreopsis rosea Nutt. – Pink Tickseed
-Section Gyrophyllum (syn. Palmatae)
-Coreopsis delphiniifolia Lam. – Larkspurleaf Tickseed
+Coreopsis rosea Nutt. – Pink Tickseed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Section Gyrophyllum (syn. Palmatae)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Coreopsis delphiniifolia Lam. – Larkspurleaf Tickseed
 Coreopsis major Walter – Greater Tickseed
 Coreopsis palmata Nutt. – Stiff Tickseed
 Coreopsis pulchra F.E.Boynton – Woodland Tickseed
 Coreopsis tripteris L. – Tall Tickseed
-Coreopsis verticillata L. – Whorled Tickseed
-Section Leptosyne
-Coreopsis douglasii (DC.) H.M.Hall – Douglas's Tickseed
+Coreopsis verticillata L. – Whorled Tickseed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Section Leptosyne</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Coreopsis douglasii (DC.) H.M.Hall – Douglas's Tickseed
 Coreopsis californica (Nutt.) H.Sharsm. – California Tickseed
-Coreopsis stillmanii (A.Gray) S.F.Blake – Stillman's Tickseed
-Section Pseudoagarista
-Amérique du Sud, 35 espèces
+Coreopsis stillmanii (A.Gray) S.F.Blake – Stillman's Tickseed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Section Pseudoagarista</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Amérique du Sud, 35 espèces
 Coreopsis mcvaughii D.J.Crawford
 Coreopsis petrophila A.Gray
 Coreopsis petrophiloides B.L.Rob. &amp; Greenm.
-Coreopsis rudis (Benth.) Hemsl.
-Section Pugiopappus
-Coreopsis bigelovii (A.Gray) Voss – Bigelow's Tickseed
+Coreopsis rudis (Benth.) Hemsl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Section Pugiopappus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Coreopsis bigelovii (A.Gray) Voss – Bigelow's Tickseed
 Coreopsis calliopsidea (DC.) A.Gray – Leafstem Tickseed
-Coreopsis hamiltonii (Elmer) H. Sharsm. – Mount Hamilton Tickseed
-Section Silphidium
-Coreopsis latifolia Michx. – Broadleaf Tickseed
-Section Tuckermannia
-Coreopsis gigantea (Kellogg) H.M.Hall – Giant Coreopsis
-Coreopsis maritima (Nutt.) Hook.f. – Sea Dahlia
-Espèces anciennement appelées Coreopsis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coreopsis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Coreopsis hamiltonii (Elmer) H. Sharsm. – Mount Hamilton Tickseed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Section Silphidium</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Coreopsis latifolia Michx. – Broadleaf Tickseed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Section Tuckermannia</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Coreopsis gigantea (Kellogg) H.M.Hall – Giant Coreopsis
+Coreopsis maritima (Nutt.) Hook.f. – Sea Dahlia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Coreopsis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreopsis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut confondre les Coreopsis avec de nombreux autres genres d'astéracées et notamment les Bidens ou les Cosmos.
 </t>
